--- a/01.Resources/SomeUsefulCommands.xlsx
+++ b/01.Resources/SomeUsefulCommands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects&amp;Textbooks\19.Computer-Networking-Advanced\01.Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04A4D81-7989-4B81-8CB8-12894B75D9BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33DE4F7-9122-4119-B4C5-57BE5BC9B3C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610" xr2:uid="{CDB4E366-0A2F-4B70-B101-4036CD4E2F28}"/>
+    <workbookView xWindow="50" yWindow="70" windowWidth="14000" windowHeight="8380" xr2:uid="{CDB4E366-0A2F-4B70-B101-4036CD4E2F28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>sh ip int b</t>
   </si>
@@ -79,6 +79,108 @@
   </si>
   <si>
     <t>reload</t>
+  </si>
+  <si>
+    <t>ip ac e name</t>
+  </si>
+  <si>
+    <t>sh ac</t>
+  </si>
+  <si>
+    <t>25 p u a a eq 67</t>
+  </si>
+  <si>
+    <t>int g0/0 =&gt; ip ac name i/o</t>
+  </si>
+  <si>
+    <t>show ip interface brief</t>
+  </si>
+  <si>
+    <t>show running-config</t>
+  </si>
+  <si>
+    <t>show running-config | section ospf</t>
+  </si>
+  <si>
+    <t>show ip ospf neighbor</t>
+  </si>
+  <si>
+    <t>show ip ospf</t>
+  </si>
+  <si>
+    <t>show ip ospf database</t>
+  </si>
+  <si>
+    <t>ip access-list extended name</t>
+  </si>
+  <si>
+    <t>ac name(number) rule</t>
+  </si>
+  <si>
+    <t>access-list 105 permit tcp host 1.1.1.1 h 2.2.2.2 eq 100</t>
+  </si>
+  <si>
+    <t>ip ac e name =&gt; rule number permit/deny udp any any eq port</t>
+  </si>
+  <si>
+    <t>show access-lists</t>
+  </si>
+  <si>
+    <t>int name =&gt; ip access-group name in(inbound)/out(outbound)</t>
+  </si>
+  <si>
+    <t>sh r | s access</t>
+  </si>
+  <si>
+    <t>show run | section access</t>
+  </si>
+  <si>
+    <t>ip nat I s l 1 I g0/2</t>
+  </si>
+  <si>
+    <t>ip nat inside source list 1 interface g0/2</t>
+  </si>
+  <si>
+    <t>interface g0/2 =&gt; ip nat outside</t>
+  </si>
+  <si>
+    <t>int g0/2 =&gt; ip n o</t>
+  </si>
+  <si>
+    <t>int r g0/1 - 2 =&gt; ip n i</t>
+  </si>
+  <si>
+    <t>interface range g0/1 - 2 =&gt; ip nat inside</t>
+  </si>
+  <si>
+    <t>sh ip nat t</t>
+  </si>
+  <si>
+    <t>sh ip nat s</t>
+  </si>
+  <si>
+    <t>sh ip nat translations</t>
+  </si>
+  <si>
+    <t>sh ip nat statistics</t>
+  </si>
+  <si>
+    <t>cle ip n t *</t>
+  </si>
+  <si>
+    <t>clear ip nat translation *</t>
+  </si>
+  <si>
+    <t>ip nat i s s 192.168.1.100 82.1.1.2</t>
+  </si>
+  <si>
+    <t>ip nat inside source static 192.168.1.100 82.1.1.2</t>
+  </si>
+  <si>
+    <t>ip nat i s s t 192.168.1.100 80 82.1.1.2 85</t>
+  </si>
+  <si>
+    <t>ip nat inside source static tcp 192.168.1.100 80 82.1.1.2 85</t>
   </si>
 </sst>
 </file>
@@ -433,20 +535,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104B7030-DA84-47D3-B909-D771CC032472}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="54.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +559,11 @@
       <c r="D1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -467,57 +573,176 @@
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/01.Resources/SomeUsefulCommands.xlsx
+++ b/01.Resources/SomeUsefulCommands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects&amp;Textbooks\19.Computer-Networking-Advanced\01.Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33DE4F7-9122-4119-B4C5-57BE5BC9B3C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DA7B97-C8C3-4723-B713-C85FD5A67592}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="70" windowWidth="14000" windowHeight="8380" xr2:uid="{CDB4E366-0A2F-4B70-B101-4036CD4E2F28}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15650" xr2:uid="{CDB4E366-0A2F-4B70-B101-4036CD4E2F28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
   <si>
     <t>sh ip int b</t>
   </si>
@@ -181,16 +181,171 @@
   </si>
   <si>
     <t>ip nat inside source static tcp 192.168.1.100 80 82.1.1.2 85</t>
+  </si>
+  <si>
+    <t>netsh interface ipv6 set global randomizeidentifiers=disabled</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/previous-versions/technet-magazine/cc137983(v=msdn.10)</t>
+  </si>
+  <si>
+    <t>fe80::/64 VS. fe80::/10</t>
+  </si>
+  <si>
+    <t>https://www.iana.org/assignments/iana-ipv6-special-registry/iana-ipv6-special-registry.xhtml</t>
+  </si>
+  <si>
+    <t>https://tools.ietf.org/id/draft-petrescu-6man-11-prefix-len-00.html#RFC2119</t>
+  </si>
+  <si>
+    <t>https://tools.ietf.org/id/draft-petrescu-6man-ll-prefix-len#RFC2119</t>
+  </si>
+  <si>
+    <t>https://networkengineering.stackexchange.com/questions/38080/ipv6-link-local-addresses</t>
+  </si>
+  <si>
+    <t>show ipv6 int brief</t>
+  </si>
+  <si>
+    <t>ipv6config</t>
+  </si>
+  <si>
+    <t>conf t =&gt; ipv6 unicast-routing</t>
+  </si>
+  <si>
+    <t>int g0/0 =&gt; ipv6 dhcp server name(softuni)</t>
+  </si>
+  <si>
+    <t>ipv6 d p name(softuni) =&gt; dn 2001:AB1:1234:20::100</t>
+  </si>
+  <si>
+    <t>ipv6 dhcp pool name(softuni) =&gt; dns-server 2001:AB1:1234:20::100</t>
+  </si>
+  <si>
+    <t>int g0/0 =&gt; ipv nd o</t>
+  </si>
+  <si>
+    <t>int g0/0 =&gt; ipv6 nd other-config-flag</t>
+  </si>
+  <si>
+    <t>int g0/0 =&gt; ipv d s name(softuni)</t>
+  </si>
+  <si>
+    <t>sh ipv int b</t>
+  </si>
+  <si>
+    <t>conf t =&gt; ipv u</t>
+  </si>
+  <si>
+    <t>ipconfig /displaydns</t>
+  </si>
+  <si>
+    <t>ipconfig /flushdns</t>
+  </si>
+  <si>
+    <t>ipv6 router ospf 1</t>
+  </si>
+  <si>
+    <t>ipv router o 1</t>
+  </si>
+  <si>
+    <t>router-id 1.1.1.1</t>
+  </si>
+  <si>
+    <t>ro 1.1.1.1</t>
+  </si>
+  <si>
+    <t>int g0/0 =&gt; ipv6 ospf 1 area 1</t>
+  </si>
+  <si>
+    <t>int g0/0 =&gt; ipv o 1 a 1</t>
+  </si>
+  <si>
+    <t>show ipv6 route</t>
+  </si>
+  <si>
+    <t>sh ipv ro</t>
+  </si>
+  <si>
+    <t>show ipv6 interface brief</t>
+  </si>
+  <si>
+    <t>show ipv6 ospf neighbor</t>
+  </si>
+  <si>
+    <t>sh ipv o n</t>
+  </si>
+  <si>
+    <t>show ipv6 ospf interface</t>
+  </si>
+  <si>
+    <t>sh ipv o int</t>
+  </si>
+  <si>
+    <t>show running-config | section ipv6</t>
+  </si>
+  <si>
+    <t>sh r | s ipv6</t>
+  </si>
+  <si>
+    <t>show ipv6 protocols</t>
+  </si>
+  <si>
+    <t>sh ipv p</t>
+  </si>
+  <si>
+    <t>traceroute 2001:3::2</t>
+  </si>
+  <si>
+    <t>tr 2001:3::2</t>
+  </si>
+  <si>
+    <t>nslookup www.softuni.bg</t>
+  </si>
+  <si>
+    <t>nslookup</t>
+  </si>
+  <si>
+    <t>&gt; set type=ns</t>
+  </si>
+  <si>
+    <t>&gt; softuni.bg</t>
+  </si>
+  <si>
+    <t>&gt; server asa.ns.cloudflare.com</t>
+  </si>
+  <si>
+    <t>( &gt; server 108.162.192.246 )</t>
+  </si>
+  <si>
+    <t>&gt; set type=a</t>
+  </si>
+  <si>
+    <t>&gt; www.softuni.bg</t>
+  </si>
+  <si>
+    <t>&gt; set type=SOA</t>
+  </si>
+  <si>
+    <t>&gt; set type=MX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,16 +368,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -535,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104B7030-DA84-47D3-B909-D771CC032472}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,10 +707,11 @@
     <col min="1" max="1" width="45.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="54.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="80.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,8 +724,11 @@
       <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -576,8 +741,11 @@
       <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -587,8 +755,11 @@
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -598,8 +769,11 @@
       <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -609,8 +783,11 @@
       <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G5" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -620,8 +797,11 @@
       <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G6" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -631,8 +811,11 @@
       <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G7" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -643,7 +826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -654,7 +837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -665,7 +848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -673,23 +856,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="F13" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -697,17 +886,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="F15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>44</v>
@@ -717,6 +912,9 @@
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C17" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="F17" s="1" t="s">
         <v>45</v>
       </c>
@@ -725,6 +923,9 @@
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="C18" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F18" s="1" t="s">
         <v>47</v>
       </c>
@@ -733,6 +934,9 @@
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C19" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F19" s="1" t="s">
         <v>49</v>
       </c>
@@ -741,12 +945,168 @@
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>51</v>
       </c>
     </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{7C6AA6DD-0E2B-4F3C-9A85-B07AA719B983}"/>
+    <hyperlink ref="G4" r:id="rId2" xr:uid="{2288C576-DCD9-4AF9-B6FA-6A6D5480F678}"/>
+    <hyperlink ref="G5" r:id="rId3" location="RFC2119" xr:uid="{B2B325F5-FEE1-4EB7-A1BF-45B73A50F055}"/>
+    <hyperlink ref="G6" r:id="rId4" location="RFC2119" xr:uid="{7C59DEE7-65A6-4CD7-87BC-3316FA3BFC96}"/>
+    <hyperlink ref="G7" r:id="rId5" xr:uid="{A15DDC8F-88A8-40A4-8B3C-ADEBF6357BA6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/01.Resources/SomeUsefulCommands.xlsx
+++ b/01.Resources/SomeUsefulCommands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects&amp;Textbooks\19.Computer-Networking-Advanced\01.Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DA7B97-C8C3-4723-B713-C85FD5A67592}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7EA708-4330-44CE-BA0D-8DD2EA3CDB2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="28800" windowHeight="15650" xr2:uid="{CDB4E366-0A2F-4B70-B101-4036CD4E2F28}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21300" xr2:uid="{CDB4E366-0A2F-4B70-B101-4036CD4E2F28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="126">
   <si>
     <t>sh ip int b</t>
   </si>
@@ -328,6 +328,81 @@
   </si>
   <si>
     <t>&gt; set type=MX</t>
+  </si>
+  <si>
+    <t>username BackupAdmin privilege 15 secret SoftUni</t>
+  </si>
+  <si>
+    <t>u BackupAdmin pr 15 s SoftUni</t>
+  </si>
+  <si>
+    <t>aaa new-model</t>
+  </si>
+  <si>
+    <t>aa n</t>
+  </si>
+  <si>
+    <t>radius server softuni</t>
+  </si>
+  <si>
+    <t>ra s softuni</t>
+  </si>
+  <si>
+    <t>=&gt; address ipv4 10.1.1.100</t>
+  </si>
+  <si>
+    <t>=&gt; a i 10.1.1.100</t>
+  </si>
+  <si>
+    <t>=&gt; key SoftUni</t>
+  </si>
+  <si>
+    <t>=&gt; k SoftUni</t>
+  </si>
+  <si>
+    <t>aaa authentication login default group radius local</t>
+  </si>
+  <si>
+    <t>aa authe l d g r local</t>
+  </si>
+  <si>
+    <t>line vty 0 15</t>
+  </si>
+  <si>
+    <t>=&gt; login authentication default</t>
+  </si>
+  <si>
+    <t>=&gt; logi a d</t>
+  </si>
+  <si>
+    <t>ena s SoftUni(for telnet #)</t>
+  </si>
+  <si>
+    <t>enable secret SoftUni(for telnet #)</t>
+  </si>
+  <si>
+    <t>aaa authentication login console none</t>
+  </si>
+  <si>
+    <t>aa authe l console n</t>
+  </si>
+  <si>
+    <t>line console 0</t>
+  </si>
+  <si>
+    <t>lin c 0</t>
+  </si>
+  <si>
+    <t>=&gt; login authentication console</t>
+  </si>
+  <si>
+    <t>=&gt; logi a console</t>
+  </si>
+  <si>
+    <t>MLS =&gt; ip routing</t>
+  </si>
+  <si>
+    <t>MLS =&gt; ip routi</t>
   </si>
 </sst>
 </file>
@@ -372,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -381,6 +456,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -696,19 +774,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104B7030-DA84-47D3-B909-D771CC032472}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="59.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="80.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="59.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="80.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -1096,6 +1174,110 @@
       </c>
       <c r="F36" s="1" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/01.Resources/SomeUsefulCommands.xlsx
+++ b/01.Resources/SomeUsefulCommands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects&amp;Textbooks\19.Computer-Networking-Advanced\01.Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Projects&amp;Textbooks\19.Computer-Networking-Advanced\01.Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7EA708-4330-44CE-BA0D-8DD2EA3CDB2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D1D7AF-DA8C-41FD-B862-C7CBA9A37BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21300" xr2:uid="{CDB4E366-0A2F-4B70-B101-4036CD4E2F28}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7670" xr2:uid="{CDB4E366-0A2F-4B70-B101-4036CD4E2F28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="171">
   <si>
     <t>sh ip int b</t>
   </si>
@@ -403,6 +403,141 @@
   </si>
   <si>
     <t>MLS =&gt; ip routi</t>
+  </si>
+  <si>
+    <t>int s0/1/0 =&gt; ip ad =&gt; cl r 2000000</t>
+  </si>
+  <si>
+    <t>int s0/1/0 =&gt; ip ad =&gt; clock rate 2000000</t>
+  </si>
+  <si>
+    <t>net serial net via serial interface</t>
+  </si>
+  <si>
+    <t>conf t =&gt; cla name</t>
+  </si>
+  <si>
+    <t>=&gt; match protocol rtp</t>
+  </si>
+  <si>
+    <t>=&gt; m pro name</t>
+  </si>
+  <si>
+    <t>&lt;= pol name</t>
+  </si>
+  <si>
+    <t>&lt;= policy-map mark</t>
+  </si>
+  <si>
+    <t>=&gt; class voice</t>
+  </si>
+  <si>
+    <t>=&gt; c name</t>
+  </si>
+  <si>
+    <t>=&gt; set i d e</t>
+  </si>
+  <si>
+    <t>=&gt; set ip dscp ef</t>
+  </si>
+  <si>
+    <t>= priority percent 40</t>
+  </si>
+  <si>
+    <t>= p p 40</t>
+  </si>
+  <si>
+    <t>=&gt; class http</t>
+  </si>
+  <si>
+    <t>=&gt; c http</t>
+  </si>
+  <si>
+    <t>=&gt; set ip dscp af31</t>
+  </si>
+  <si>
+    <t>=&gt; set i d type</t>
+  </si>
+  <si>
+    <t>= bandwidth percent 30</t>
+  </si>
+  <si>
+    <t>= b p %</t>
+  </si>
+  <si>
+    <t>int s0/1/0 =&gt; service-policy output mark</t>
+  </si>
+  <si>
+    <t>int s0/1/0 =&gt; se o name</t>
+  </si>
+  <si>
+    <t>conf t =&gt; class-map voice</t>
+  </si>
+  <si>
+    <t>=&gt; m ip d type</t>
+  </si>
+  <si>
+    <t>conf t =&gt; class-map http</t>
+  </si>
+  <si>
+    <t>=&gt; match ip dscp af31</t>
+  </si>
+  <si>
+    <t>&lt;= policy-map remark</t>
+  </si>
+  <si>
+    <t>=&gt; set precedence 5</t>
+  </si>
+  <si>
+    <t>=&gt; set p value</t>
+  </si>
+  <si>
+    <t>int s0/1/0 =&gt; service-policy input remark</t>
+  </si>
+  <si>
+    <t>int s0/1/0 =&gt; se i name</t>
+  </si>
+  <si>
+    <t>show policy-map interface s0/1/0</t>
+  </si>
+  <si>
+    <t>sh po i s0/1/0</t>
+  </si>
+  <si>
+    <t>conf t =&gt; monitor session 1 source interface fa0/1 both</t>
+  </si>
+  <si>
+    <t>conf t =&gt; mo s 1 s i fa0/1 b</t>
+  </si>
+  <si>
+    <t>show monitor</t>
+  </si>
+  <si>
+    <t>sh mo</t>
+  </si>
+  <si>
+    <t>= monitor session 1 destination interface fa0/4</t>
+  </si>
+  <si>
+    <t>= mo s 1 d i name</t>
+  </si>
+  <si>
+    <t>= monitor session 1 destination remote vlan 99 reflector-port fa0/23</t>
+  </si>
+  <si>
+    <t>= mo s 1 d r v 99 r fa0/23</t>
+  </si>
+  <si>
+    <t>conf t =&gt; monitor session 1 destination interface fa0/2</t>
+  </si>
+  <si>
+    <t>conf t =&gt; mo s 1 d i fa0/2</t>
+  </si>
+  <si>
+    <t>= monitor session 1 source remote vlan 99</t>
+  </si>
+  <si>
+    <t>= mo s 1 s r v 99</t>
   </si>
 </sst>
 </file>
@@ -774,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104B7030-DA84-47D3-B909-D771CC032472}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -842,7 +977,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>25</v>
@@ -856,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>26</v>
@@ -870,7 +1005,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>27</v>
@@ -884,7 +1019,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>28</v>
@@ -898,7 +1033,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>31</v>
@@ -909,7 +1044,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>30</v>
@@ -920,7 +1055,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>32</v>
@@ -930,6 +1065,9 @@
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
@@ -938,9 +1076,6 @@
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F12" s="1" t="s">
         <v>35</v>
       </c>
@@ -950,7 +1085,7 @@
         <v>36</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>37</v>
@@ -960,6 +1095,9 @@
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>41</v>
       </c>
@@ -968,9 +1106,6 @@
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="F15" s="1" t="s">
         <v>38</v>
       </c>
@@ -980,7 +1115,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>44</v>
@@ -991,7 +1126,7 @@
         <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>45</v>
@@ -1002,7 +1137,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>47</v>
@@ -1013,7 +1148,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>49</v>
@@ -1024,7 +1159,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>51</v>
@@ -1035,7 +1170,7 @@
         <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>59</v>
@@ -1046,7 +1181,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>60</v>
@@ -1057,7 +1192,7 @@
         <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>61</v>
@@ -1068,7 +1203,7 @@
         <v>63</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>64</v>
@@ -1079,7 +1214,7 @@
         <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>62</v>
@@ -1090,7 +1225,7 @@
         <v>65</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>66</v>
@@ -1100,6 +1235,9 @@
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="C27" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F27" s="1" t="s">
         <v>72</v>
       </c>
@@ -1278,6 +1416,198 @@
       </c>
       <c r="F49" s="1" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/01.Resources/SomeUsefulCommands.xlsx
+++ b/01.Resources/SomeUsefulCommands.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Projects&amp;Textbooks\19.Computer-Networking-Advanced\01.Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects&amp;Textbooks\19.Computer-Networking-Advanced\01.Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D1D7AF-DA8C-41FD-B862-C7CBA9A37BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2E9566-A19D-46EF-92D6-C52E5C31BBD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7670" xr2:uid="{CDB4E366-0A2F-4B70-B101-4036CD4E2F28}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="172">
   <si>
     <t>sh ip int b</t>
   </si>
@@ -538,6 +538,9 @@
   </si>
   <si>
     <t>= mo s 1 s r v 99</t>
+  </si>
+  <si>
+    <t>https://h10145.www1.hpe.com/Downloads/ProductsList.aspx?lang=en&amp;cc=us&amp;prodSeriesId=5443163&amp;fbclid=IwAR2wMTOfUjoj-80t6oI4pEBO3c8UN_EZDOXUoGgXeme9o5_d_qiZnSJDuvM</t>
   </si>
 </sst>
 </file>
@@ -912,7 +915,7 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1049,6 +1052,9 @@
       <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -1617,8 +1623,9 @@
     <hyperlink ref="G5" r:id="rId3" location="RFC2119" xr:uid="{B2B325F5-FEE1-4EB7-A1BF-45B73A50F055}"/>
     <hyperlink ref="G6" r:id="rId4" location="RFC2119" xr:uid="{7C59DEE7-65A6-4CD7-87BC-3316FA3BFC96}"/>
     <hyperlink ref="G7" r:id="rId5" xr:uid="{A15DDC8F-88A8-40A4-8B3C-ADEBF6357BA6}"/>
+    <hyperlink ref="G9" r:id="rId6" xr:uid="{D6C5CA28-9095-41C0-9B15-7140C33E942E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/01.Resources/SomeUsefulCommands.xlsx
+++ b/01.Resources/SomeUsefulCommands.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects&amp;Textbooks\19.Computer-Networking-Advanced\01.Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2E9566-A19D-46EF-92D6-C52E5C31BBD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25561FF4-6DC7-431D-B18E-2058323BE9B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7670" xr2:uid="{CDB4E366-0A2F-4B70-B101-4036CD4E2F28}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="221">
   <si>
     <t>sh ip int b</t>
   </si>
@@ -541,6 +541,153 @@
   </si>
   <si>
     <t>https://h10145.www1.hpe.com/Downloads/ProductsList.aspx?lang=en&amp;cc=us&amp;prodSeriesId=5443163&amp;fbclid=IwAR2wMTOfUjoj-80t6oI4pEBO3c8UN_EZDOXUoGgXeme9o5_d_qiZnSJDuvM</t>
+  </si>
+  <si>
+    <t>https://h10145.www1.hpe.com/Downloads/SoftwareReleases.aspx?ProductNumber=JD808A&amp;lang=en&amp;cc=us&amp;prodSeriesId=5443163&amp;fbclid=IwAR2iEWxGykJqiJmjb7p2l_ccVabaBikjZuXW_NS5PMLsMNZFIXDPol6RSs4</t>
+  </si>
+  <si>
+    <t>https://www.gns3.com/software/download?fbclid=IwAR1oJr0UilF84tfqjjzynt43qL_kgIv8auoYsQTas5rwwcf-gAsPAgomqIk</t>
+  </si>
+  <si>
+    <t>https://techhub.hpe.com/eginfolib/networking/docs/sdn/sdnc2_6/5998-8473install/content/s_download_sw.html</t>
+  </si>
+  <si>
+    <t>http://mininet.org/download/</t>
+  </si>
+  <si>
+    <t>https://software.cisco.com/download/home/286208072/type/286291196/release/1.2</t>
+  </si>
+  <si>
+    <t>https://developer.cisco.com/site/apic-em/</t>
+  </si>
+  <si>
+    <t>https://www.vmware.com/products/nsx/nsx-hol.html</t>
+  </si>
+  <si>
+    <t>VSR1 =&gt; sys =&gt; user-interface vty 0 63</t>
+  </si>
+  <si>
+    <t>VSR1 =&gt; sys =&gt; user-I vty 0 63</t>
+  </si>
+  <si>
+    <t>=&gt; auth n</t>
+  </si>
+  <si>
+    <t>=&gt; authentication-mode none</t>
+  </si>
+  <si>
+    <t>=&gt; user-role network-admin</t>
+  </si>
+  <si>
+    <t>dis cu</t>
+  </si>
+  <si>
+    <t>dis current-configuration</t>
+  </si>
+  <si>
+    <t>dis cu | I telnet</t>
+  </si>
+  <si>
+    <t>dis current-configuration | include telnet</t>
+  </si>
+  <si>
+    <t>teln s e</t>
+  </si>
+  <si>
+    <t>telnet server enable</t>
+  </si>
+  <si>
+    <t>dis users</t>
+  </si>
+  <si>
+    <t>R1 =&gt; sh int f0/0</t>
+  </si>
+  <si>
+    <t>R1 =&gt; sh interface f0/0</t>
+  </si>
+  <si>
+    <t>=&gt; conf t =&gt; int f0/0</t>
+  </si>
+  <si>
+    <t>=&gt; conf t =&gt; interface f0/0</t>
+  </si>
+  <si>
+    <t>=&gt; du f, sp 100</t>
+  </si>
+  <si>
+    <t>=&gt; duplex full, speed 100</t>
+  </si>
+  <si>
+    <t>Cisco 3560 =&gt; conf t =&gt; line vty 0 15</t>
+  </si>
+  <si>
+    <t>no login, privilege level 15</t>
+  </si>
+  <si>
+    <t>Cisco 3560 =&gt; conf t =&gt; li v 0 15</t>
+  </si>
+  <si>
+    <t>n logi, pr l 15</t>
+  </si>
+  <si>
+    <t>&lt;= lin v 0 903</t>
+  </si>
+  <si>
+    <t>&lt;= line vty 0 903</t>
+  </si>
+  <si>
+    <t>no logi, privi l 15</t>
+  </si>
+  <si>
+    <t>dis snmp-agent sys-info</t>
+  </si>
+  <si>
+    <t>dis snmp- sy</t>
+  </si>
+  <si>
+    <t>snmp-agent sys-info version v2c</t>
+  </si>
+  <si>
+    <t>snmp- s v v2</t>
+  </si>
+  <si>
+    <t>un snmp- s v v3</t>
+  </si>
+  <si>
+    <t>undo snmp-agent sys-info version v3</t>
+  </si>
+  <si>
+    <t>snmp-agent community read softuni(password)</t>
+  </si>
+  <si>
+    <t>snmp-agent community write netadvanced(password)</t>
+  </si>
+  <si>
+    <t>snmp- community r softuni(password)</t>
+  </si>
+  <si>
+    <t>snmp- community w netadvanced(password)</t>
+  </si>
+  <si>
+    <t>sn com softuni(password) ro</t>
+  </si>
+  <si>
+    <t>snmp-server community softuni(password) ro</t>
+  </si>
+  <si>
+    <t>sn com netadvanced(password) rw</t>
+  </si>
+  <si>
+    <t>snmp-server community netadvanced(password) rw</t>
+  </si>
+  <si>
+    <t>snmp-s com softuni(password) ro</t>
+  </si>
+  <si>
+    <t>snmp-s com netadvanced(password) rw</t>
+  </si>
+  <si>
+    <t>=&gt; us network-admin</t>
   </si>
 </sst>
 </file>
@@ -912,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104B7030-DA84-47D3-B909-D771CC032472}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1066,6 +1213,9 @@
       <c r="F10" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G10" s="3" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
@@ -1077,6 +1227,9 @@
       <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="G11" s="3" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -1096,6 +1249,9 @@
       <c r="F13" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="G13" s="3" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -1107,6 +1263,9 @@
       <c r="F14" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="G14" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
@@ -1115,6 +1274,9 @@
       <c r="F15" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="G15" s="3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -1126,8 +1288,11 @@
       <c r="F16" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1137,8 +1302,11 @@
       <c r="F17" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>46</v>
       </c>
@@ -1149,7 +1317,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -1160,7 +1328,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1171,7 +1339,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>68</v>
       </c>
@@ -1182,7 +1350,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -1193,7 +1361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
@@ -1204,7 +1372,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
@@ -1215,7 +1383,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
@@ -1226,7 +1394,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
@@ -1237,7 +1405,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
@@ -1248,7 +1416,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -1256,7 +1424,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>77</v>
       </c>
@@ -1264,7 +1432,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>79</v>
       </c>
@@ -1272,7 +1440,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
@@ -1280,7 +1448,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>82</v>
       </c>
@@ -1614,6 +1782,190 @@
       </c>
       <c r="F73" s="1" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1624,8 +1976,15 @@
     <hyperlink ref="G6" r:id="rId4" location="RFC2119" xr:uid="{7C59DEE7-65A6-4CD7-87BC-3316FA3BFC96}"/>
     <hyperlink ref="G7" r:id="rId5" xr:uid="{A15DDC8F-88A8-40A4-8B3C-ADEBF6357BA6}"/>
     <hyperlink ref="G9" r:id="rId6" xr:uid="{D6C5CA28-9095-41C0-9B15-7140C33E942E}"/>
+    <hyperlink ref="G10" r:id="rId7" xr:uid="{90EEF944-405E-49FA-8CCE-4580A1BD600A}"/>
+    <hyperlink ref="G11" r:id="rId8" xr:uid="{8D9555EA-3903-43AA-9CD4-ABB01D0EB84D}"/>
+    <hyperlink ref="G13" r:id="rId9" xr:uid="{1E3C5AAA-C6DF-4BDE-A8DC-A6644509C36E}"/>
+    <hyperlink ref="G14" r:id="rId10" xr:uid="{7C3D21ED-9E38-4CDC-9E32-4BCAAF81BF98}"/>
+    <hyperlink ref="G15" r:id="rId11" xr:uid="{9FF25E27-6FAB-4A50-8CEC-DC5D184DC1A9}"/>
+    <hyperlink ref="G16" r:id="rId12" xr:uid="{3A7D6236-A5E0-464D-96A3-34BB034CA366}"/>
+    <hyperlink ref="G17" r:id="rId13" xr:uid="{21D26513-A203-4053-B3F3-28B5248DE10F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/01.Resources/SomeUsefulCommands.xlsx
+++ b/01.Resources/SomeUsefulCommands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects&amp;Textbooks\19.Computer-Networking-Advanced\01.Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25561FF4-6DC7-431D-B18E-2058323BE9B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DD578E-64CD-4D3F-971B-1FA4481073B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7670" xr2:uid="{CDB4E366-0A2F-4B70-B101-4036CD4E2F28}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="229">
   <si>
     <t>sh ip int b</t>
   </si>
@@ -57,9 +57,6 @@
     <t>redistribute ospf 2 subnets</t>
   </si>
   <si>
-    <t>redistribute connected subnets</t>
-  </si>
-  <si>
     <t>area 1 stub</t>
   </si>
   <si>
@@ -688,6 +685,33 @@
   </si>
   <si>
     <t>=&gt; us network-admin</t>
+  </si>
+  <si>
+    <t>redistribute connected subnets / re c s</t>
+  </si>
+  <si>
+    <t>access-list 1 permit 10.1.1.0 0.0.0.255</t>
+  </si>
+  <si>
+    <t>ac 1 p 10.1.1.0 0.0.0.255</t>
+  </si>
+  <si>
+    <t>10.8.0.70; 172.29.96.1; 169.254.21.90; 192.168.50.10; 192.168.134.1; 192.168.50.210</t>
+  </si>
+  <si>
+    <t>a5k7mzjr</t>
+  </si>
+  <si>
+    <t>472 331 418</t>
+  </si>
+  <si>
+    <t>172.29.208.1; 169.254.4.132; 192.168.56.1; 192.168.50.11; 192.168.90.1; 192.168.93.1; 10.189.41.23</t>
+  </si>
+  <si>
+    <t>1 039 428 086</t>
+  </si>
+  <si>
+    <t>qyupsir8</t>
   </si>
 </sst>
 </file>
@@ -1059,16 +1083,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104B7030-DA84-47D3-B909-D771CC032472}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.54296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="59.1796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="80.54296875" bestFit="1" customWidth="1"/>
@@ -1082,13 +1106,13 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1099,13 +1123,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1116,10 +1140,10 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1127,13 +1151,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1144,127 +1168,127 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>221</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1272,700 +1296,730 @@
         <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>107</v>
+      <c r="F40" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F41" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>111</v>
+      <c r="F42" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F59" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>146</v>
+      <c r="F60" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F62" s="4" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>155</v>
+      <c r="F66" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F68" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>163</v>
+      <c r="F69" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F72" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>161</v>
+      <c r="F73" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>182</v>
+      <c r="F75" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>185</v>
+      <c r="A77" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>215</v>
+        <v>202</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>197</v>
+      <c r="A93" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>217</v>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C110" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G110" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C112" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G112" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
